--- a/similarities/split_global/harmonic_similarity_timestamps_370.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_370.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,46 +484,56 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:46.600000', '0:00:49.040000')]</t>
+          <t>('0:00:20.200000', '0:00:22.820000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:05.571955', '0:00:28.079297')]</t>
+          <t>('0:00:59.500000', '0:01:08.120000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=46.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=20.2</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=5.571955']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -532,54 +542,58 @@
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['F:7/D#', 'A#:maj/D', 'F:maj/C']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D']]</t>
+          <t>['G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:58.620000', '0:01:05.560000')]</t>
+          <t>('0:01:10.740000', '0:01:13.740000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:09.236303', '0:00:12.162018')]</t>
+          <t>('0:00:56.600000', '0:01:01.460000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=58.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=70.74</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-231#t=9.236303']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=56.6</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -589,37 +603,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj', 'A:min'], ['A:min/E', 'E:7', 'A:min']]</t>
+          <t>['C:maj/E', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:13.500000', '0:00:21.900000'), ('0:01:23.100000', '0:01:30.020000')]</t>
+          <t>('0:00:38.900000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:09.140000', '0:00:16.920000'), ('0:00:19.480000', '0:00:25.860000')]</t>
+          <t>('0:00:40.280000', '0:00:45.520000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=83.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=38.9</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=9.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=19.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=40.28</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -628,558 +642,580 @@
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>isophonics_224</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['E:7', 'A', 'E']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:7', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:14.628775', '0:00:26.430680')]</t>
+          <t>('0:00:55.002834', '0:00:59.124376')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:00:08.180000', '0:00:09.860000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=55.002834</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=8.18</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>isophonics_50</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['Db/5', 'Ab', 'Db/5']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:06.920000', '0:01:08.180000')]</t>
+          <t>('0:04:24.615000', '0:04:33.028000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:13.390000', '0:00:17.230000')]</t>
+          <t>('0:00:58.300068', '0:01:03.443287')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=264.615</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=13.39']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=58.300068</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_90</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:02:08.760000', '0:02:13.560000')]</t>
+          <t>('0:02:34.760000', '0:02:39.840000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:02.408196', '0:00:13.878853')]</t>
+          <t>('0:01:09.360000', '0:01:13.200000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=2.408196']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:28.640000', '0:01:07.100000')]</t>
+          <t>('0:01:19.980000', '0:01:33.600000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:45.720000', '0:00:59.980000')]</t>
+          <t>('0:00:21.170000', '0:00:25.690000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=28.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=21.17</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:00:17.040000', '0:00:24.520000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:12.820000', '0:01:24.380000')]</t>
+          <t>('0:00:14.840000', '0:00:22.200000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=14.84</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>jaah_56</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_42</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb:7']]</t>
+          <t>['F:min7', 'Db:7', 'C:7']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F:7']]</t>
+          <t>['F:min7', 'Db:7', 'C:7']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:05.440000', '0:00:12.950000')]</t>
+          <t>('0:02:09.090000', '0:02:11.230000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:41.770000', '0:00:54.590000')]</t>
+          <t>('0:01:32.510000', '0:01:38.990000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=5.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=129.09</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-42#t=41.77']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=92.51</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['F:min', 'C:7', 'F:min', 'F:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:39.180000', '0:00:53.360000')]</t>
+          <t>('0:00:49.340000', '0:01:01.680000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:12.820000', '0:01:24.380000')]</t>
+          <t>('0:00:00.300000', '0:00:03.640000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=39.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=49.34</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F', 'F:min', 'C']]</t>
+          <t>['A', 'D', 'A/3', 'B:min7', 'A']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'D#:min/A#', 'A#:maj']]</t>
+          <t>['G/3', 'C', 'G', 'A:min7', 'G/3']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:38.588000', '0:00:43.202000')]</t>
+          <t>('0:00:13.527000', '0:00:19.647000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:08.060000', '0:00:15.600000')]</t>
+          <t>('0:00:13.079206', '0:00:20.323832')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=38.588']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=13.527</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=8.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:32.080000', '0:00:41.940000')]</t>
+          <t>('0:00:12.510000', '0:00:13.910000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:28.440000')]</t>
+          <t>('0:01:12.520000', '0:01:23.280000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=32.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=72.52</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>jaah_64</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>jaah_19</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['E:min7', 'A:7', 'D:min7', 'G:7', 'C:maj6']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>['C:min7', 'F:7', 'Bb:min7', 'Eb:7', 'Ab:maj6']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:45.425056', '0:01:55.003287')]</t>
+          <t>('0:00:18.600000', '0:00:24.030000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:17.340000', '0:00:24.400000')]</t>
+          <t>('0:00:32.210000', '0:00:35.480000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=18.6</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-19#t=32.21</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>jaah_4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>jaah_75</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj']]</t>
+          <t>['F:min7', 'Bb:min7', 'Eb:7']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb:7', 'Ab']]</t>
+          <t>['Eb:maj6', 'F:min7', 'Bb:7']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:03.460000', '0:00:07.160000')]</t>
+          <t>('0:00:22.570000', '0:00:28.190000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:23.428956', '0:00:30.731632')]</t>
+          <t>('0:00:18.960000', '0:00:22.730000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=3.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=22.57</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=23.428956']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=18.96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>isophonics_50</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db:maj6/2']]</t>
+          <t>['Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A:maj6']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:03.858000', '0:01:20.628000')]</t>
+          <t>('0:01:58.640000', '0:02:03.070000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:04.511043', '0:00:10.664331')]</t>
+          <t>('0:00:58.300068', '0:01:03.443287')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=63.858']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=118.64</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-242#t=4.511043']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=58.300068</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
